--- a/generated_docs/WR_89987874_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89987874_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12148.99</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -679,7 +679,11 @@
           <t>Job #:</t>
         </is>
       </c>
-      <c r="G13" s="6" t="n"/>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>753-2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -761,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -795,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -829,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -863,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -897,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -931,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -965,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -999,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1033,28 +1037,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>68.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>TIE-6-CUH-F</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1063,45 +1067,45 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>395.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1112,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1122,20 +1126,20 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1146,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1156,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1199,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1233,22 +1237,22 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>TIE-6-CUH-F</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1258,41 +1262,41 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>430</v>
+        <v>18</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>399.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1316,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1326,20 +1330,20 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1350,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1369,32 +1373,32 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 49</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,18 +1411,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1428,31 +1432,31 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>522.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>TIE-6-CUH-F</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1462,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1471,32 +1475,32 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 49</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1505,11 +1509,11 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1524,7 @@
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1530,20 +1534,20 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>562</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1558,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1564,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1573,32 +1577,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1607,32 +1611,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SLT-100-SR</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>100W 120V Sodium Roadway Refractor</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,18 +1649,18 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1666,31 +1670,31 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>436</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>405.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-6-CUH-F</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1700,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1709,32 +1713,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,28 +1751,28 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SLT-100-SR</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>100W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1777,56 +1781,56 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 53</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 54</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1836,31 +1840,31 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>432</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>401.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 54</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1870,7 +1874,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1883,18 +1887,18 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 54</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1904,7 +1908,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1913,22 +1917,22 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 54</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>TIE-6-CUH-F</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1938,7 +1942,7 @@
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1947,22 +1951,22 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 53</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1972,7 +1976,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,62 +1989,62 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 55</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 55</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,18 +2057,18 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 56</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2074,7 +2078,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2087,18 +2091,18 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 58</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2108,30 +2112,268 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>308</v>
+        <v>2</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>286.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="inlineStr">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 54</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>TIE-6-CUH-F</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 55</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 55</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>Point 55</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 56</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>Point 58</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>308</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H57" s="16" t="n">
-        <v>12148.99</v>
+      <c r="H64" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2144,8 +2386,8 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89987874_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89987874_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I64"/>
+  <dimension ref="A2:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>10203.4</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P36</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,13 +761,13 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
@@ -799,13 +795,13 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
@@ -833,13 +829,13 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
@@ -901,28 +897,28 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,22 +927,22 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,52 +965,52 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>395.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,22 +1029,22 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>TIE-6-CUH-F</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,32 +1063,32 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 46</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,56 +1097,56 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 47</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,31 +1156,31 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>399.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,18 +1203,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,22 +1233,22 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 46</t>
+          <t>Point 48</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>TIE-6-CUH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,17 +1267,17 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 47</t>
+          <t>Point 49</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
@@ -1309,13 +1305,13 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
@@ -1339,22 +1335,22 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>430</v>
+        <v>562</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>522.66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-4-SPA</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#4,Slack Span Alum</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,22 +1369,22 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,22 +1403,22 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,22 +1437,22 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 48</t>
+          <t>Point 50</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>TIE-6-CUH-F</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,17 +1471,17 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 49</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -1513,52 +1509,52 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 51</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>SLT-100-SR</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>100W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-SPA</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,26 +1564,26 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,Slack Span Alum</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>436</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>405.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
@@ -1611,17 +1607,17 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
@@ -1649,13 +1645,13 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 52</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
@@ -1679,32 +1675,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 50</t>
+          <t>Point 53</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>TIE-6-CUH-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,66 +1709,66 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>401.76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 51</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SLT-100-SR</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>100W 120V Sodium Roadway Refractor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,18 +1781,18 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,31 +1802,31 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>436</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 54</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1836,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1849,32 +1845,32 @@
         </is>
       </c>
       <c r="F48" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,28 +1883,28 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 55</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,32 +1913,32 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 52</t>
+          <t>Point 55</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>TIE-6-CUH-F</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1947,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 53</t>
+          <t>Point 56</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,13 +1985,13 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 54</t>
+          <t>Point 58</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
@@ -2019,361 +2015,21 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>432</v>
+        <v>308</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>286.44</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>Point 54</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E54" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10" t="inlineStr"/>
-      <c r="H54" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>Point 54</t>
-        </is>
-      </c>
-      <c r="B55" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>Point 54</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E56" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>Point 54</t>
-        </is>
-      </c>
-      <c r="B57" s="12" t="inlineStr">
-        <is>
-          <t>TIE-6-CUH-F</t>
-        </is>
-      </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
-        <is>
-          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>Point 55</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="inlineStr">
-        <is>
-          <t>Point 55</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP-C</t>
-        </is>
-      </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E60" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>Point 55</t>
-        </is>
-      </c>
-      <c r="B61" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E61" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="inlineStr">
-        <is>
-          <t>Point 56</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C62" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E62" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10" t="inlineStr"/>
-      <c r="H62" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
-        <is>
-          <t>Point 58</t>
-        </is>
-      </c>
-      <c r="B63" s="12" t="inlineStr">
-        <is>
-          <t>CON-4-CHD-1-B</t>
-        </is>
-      </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D63" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
-        </is>
-      </c>
-      <c r="E63" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F63" s="13" t="n">
-        <v>308</v>
-      </c>
-      <c r="G63" s="13" t="inlineStr"/>
-      <c r="H63" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="15" t="inlineStr">
+      <c r="A54" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H64" s="16" t="n">
-        <v>0</v>
+      <c r="H54" s="16" t="n">
+        <v>10203.4</v>
       </c>
     </row>
   </sheetData>
@@ -2385,8 +2041,8 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A64:G64"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
